--- a/BKT_project/PRMS_Reports/cutReport_format.xlsx
+++ b/BKT_project/PRMS_Reports/cutReport_format.xlsx
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="68" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>SR_NO</t>
   </si>
@@ -27,9 +27,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>date_curr</t>
-  </si>
-  <si>
     <t>PROD_ID</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Generated  At:</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -223,10 +223,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -240,13 +240,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -444,7 +438,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Author" refreshedDate="45518.519808680554" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Author" refreshedDate="45522.729242824076" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -455,7 +449,7 @@
     <cacheField name="DateTime" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="date_curr" numFmtId="0">
+    <cacheField name="Date" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
@@ -551,15 +545,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B3:P8" firstHeaderRow="1" firstDataRow="2" firstDataCol="9"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B3:P7" firstHeaderRow="1" firstDataRow="2" firstDataCol="9"/>
   <pivotFields count="17">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="2">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="1">
         <item x="0"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -629,7 +622,7 @@
     <field x="9"/>
     <field x="10"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
       <x/>
@@ -642,9 +635,6 @@
       <x/>
     </i>
     <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
       <x/>
     </i>
     <i t="grand">
@@ -682,41 +672,38 @@
     <dataField name="Sum of act_tyres" fld="14" baseField="0" baseItem="0"/>
     <dataField name="Sum of remain_tyres" fld="15" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="12">
-    <format dxfId="47">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
+  <formats count="11">
+    <format dxfId="45">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="44">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="43">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="42">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="41">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="40">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="39">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="38">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="37">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="36">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -734,11 +721,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" insertRow="1" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" insertRow="1" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52">
   <tableColumns count="17">
     <tableColumn id="1" name="SR_NO"/>
     <tableColumn id="2" name="DateTime"/>
-    <tableColumn id="3" name="date_curr"/>
+    <tableColumn id="3" name="Date"/>
     <tableColumn id="4" name="PROD_ID"/>
     <tableColumn id="5" name="Shift"/>
     <tableColumn id="6" name="SIZE"/>
@@ -747,12 +734,12 @@
     <tableColumn id="9" name="Length"/>
     <tableColumn id="10" name="Width"/>
     <tableColumn id="11" name="Angle"/>
-    <tableColumn id="12" name="act_cuts" dataDxfId="53"/>
-    <tableColumn id="13" name="remain_cuts" dataDxfId="52"/>
-    <tableColumn id="14" name="total_set_cuts" dataDxfId="51"/>
-    <tableColumn id="15" name="act_tyres" dataDxfId="50"/>
-    <tableColumn id="16" name="remain_tyres" dataDxfId="49"/>
-    <tableColumn id="17" name="total_set_tyres" dataDxfId="48"/>
+    <tableColumn id="12" name="act_cuts" dataDxfId="51"/>
+    <tableColumn id="13" name="remain_cuts" dataDxfId="50"/>
+    <tableColumn id="14" name="total_set_cuts" dataDxfId="49"/>
+    <tableColumn id="15" name="act_tyres" dataDxfId="48"/>
+    <tableColumn id="16" name="remain_tyres" dataDxfId="47"/>
+    <tableColumn id="17" name="total_set_tyres" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1077,49 +1064,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1133,10 +1120,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H5" sqref="H5"/>
+      <pivotSelection pane="bottomRight" showHeader="1" dimension="5" activeRow="3" activeCol="6" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="8" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1147,24 +1141,24 @@
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
@@ -1175,83 +1169,83 @@
     </row>
     <row r="3" spans="1:16">
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="45">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:16" ht="30">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1262,7 +1256,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1273,7 +1267,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1281,17 +1275,6 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
